--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="32" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9201" uniqueCount="2423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9203" uniqueCount="2423">
   <si>
     <t>Scenarios</t>
   </si>
@@ -7832,43 +7832,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="377">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="374">
     <dxf>
       <fill>
         <patternFill>
@@ -12198,7 +12162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -12374,12 +12338,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="376" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="375" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21885,9 +21849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B406" sqref="B406:B409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -28832,7 +28796,9 @@
       <c r="D407" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="E407" s="92"/>
+      <c r="E407" s="92" t="s">
+        <v>2026</v>
+      </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="50" t="s">
@@ -28847,7 +28813,9 @@
       <c r="D408" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="E408" s="92"/>
+      <c r="E408" s="92" t="s">
+        <v>2026</v>
+      </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="50" t="s">
@@ -45207,1366 +45175,1366 @@
   </sheetData>
   <autoFilter ref="A1:E1385"/>
   <conditionalFormatting sqref="D1176:D1215 D745:D1046 D1217 D1305:D1310 D1223:D1259 D1313:D1329 D6:D39 D53:D336 D1069:D1170 D338:D382 D384:D743">
-    <cfRule type="containsText" dxfId="374" priority="607" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="371" priority="607" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="608" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="370" priority="608" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="609" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="369" priority="609" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271:D336 D6:D21 D53:D269 D338:D382 D384:D743">
-    <cfRule type="containsText" dxfId="371" priority="604" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="368" priority="604" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="605" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="367" priority="605" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="606" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="366" priority="606" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="368" priority="601" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="365" priority="601" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="602" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="364" priority="602" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="603" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="363" priority="603" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="365" priority="598" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="362" priority="598" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="599" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="361" priority="599" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="600" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="360" priority="600" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="362" priority="595" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="359" priority="595" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="596" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="358" priority="596" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="597" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="357" priority="597" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="359" priority="592" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="356" priority="592" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="593" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="355" priority="593" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="594" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="354" priority="594" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="356" priority="589" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="353" priority="589" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="590" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="352" priority="590" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="591" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="351" priority="591" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D744">
-    <cfRule type="containsText" dxfId="353" priority="586" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="350" priority="586" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="587" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="349" priority="587" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="588" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="348" priority="588" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D744)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D744">
-    <cfRule type="containsText" dxfId="350" priority="583" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="347" priority="583" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="584" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="346" priority="584" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="585" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="345" priority="585" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D744)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="347" priority="580" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="344" priority="580" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="581" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="343" priority="581" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="582" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="342" priority="582" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="344" priority="577" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="341" priority="577" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="578" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="340" priority="578" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="579" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="339" priority="579" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="341" priority="574" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="338" priority="574" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="575" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="337" priority="575" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="576" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="336" priority="576" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1171:D1175">
-    <cfRule type="containsText" dxfId="338" priority="568" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="335" priority="568" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="569" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="334" priority="569" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="570" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="333" priority="570" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E637:E674 E773:E803 E6:E77 E976:E1175 E338:E383 E270:E336">
-    <cfRule type="cellIs" dxfId="335" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="565" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="566" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="567" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E525:E636">
-    <cfRule type="cellIs" dxfId="332" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="562" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="563" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="564" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E896:E975">
-    <cfRule type="cellIs" dxfId="329" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="559" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="560" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="561" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E384:E420">
-    <cfRule type="cellIs" dxfId="326" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="553" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="554" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="555" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E745:E772">
-    <cfRule type="cellIs" dxfId="323" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="550" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="551" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="552" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E804:E895">
-    <cfRule type="cellIs" dxfId="320" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="547" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="548" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="549" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E421:E524">
-    <cfRule type="cellIs" dxfId="317" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="544" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="545" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="546" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E107">
-    <cfRule type="cellIs" dxfId="314" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="541" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="542" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="543" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E675:E744">
-    <cfRule type="cellIs" dxfId="311" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="538" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="539" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="540" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1176:E1270 E1339:E1344 E1272:E1337">
-    <cfRule type="cellIs" dxfId="308" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="535" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="536" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="537" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E269">
-    <cfRule type="cellIs" dxfId="305" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="532" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="533" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="534" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1281">
-    <cfRule type="containsText" dxfId="302" priority="529" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="299" priority="529" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="530" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="298" priority="530" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="531" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="297" priority="531" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1283">
-    <cfRule type="containsText" dxfId="299" priority="523" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="296" priority="523" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="524" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="295" priority="524" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="525" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="294" priority="525" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1218">
-    <cfRule type="containsText" dxfId="296" priority="481" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="293" priority="481" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="482" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="292" priority="482" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="483" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="291" priority="483" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1345">
-    <cfRule type="containsText" dxfId="293" priority="475" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="290" priority="475" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="476" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="289" priority="476" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="477" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="288" priority="477" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1345">
-    <cfRule type="cellIs" dxfId="290" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="472" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="473" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="474" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1216">
-    <cfRule type="containsText" dxfId="287" priority="487" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="284" priority="487" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="488" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="283" priority="488" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="489" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="282" priority="489" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1346">
-    <cfRule type="cellIs" dxfId="284" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="469" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="470" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="471" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1346">
-    <cfRule type="containsText" dxfId="281" priority="466" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="278" priority="466" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1346)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="467" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="277" priority="467" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1346)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="468" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="276" priority="468" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1346)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1347">
-    <cfRule type="cellIs" dxfId="278" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="463" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="464" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="465" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1347">
-    <cfRule type="containsText" dxfId="275" priority="460" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="272" priority="460" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="461" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="271" priority="461" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="462" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="270" priority="462" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1348">
-    <cfRule type="cellIs" dxfId="272" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="457" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="458" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="459" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1348">
-    <cfRule type="containsText" dxfId="269" priority="454" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="266" priority="454" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="455" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="265" priority="455" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="456" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="264" priority="456" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1219">
-    <cfRule type="containsText" dxfId="266" priority="436" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="436" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="437" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="437" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="438" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="438" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1220">
-    <cfRule type="containsText" dxfId="263" priority="430" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="430" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="431" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="431" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="432" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="432" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1221">
-    <cfRule type="containsText" dxfId="260" priority="424" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="257" priority="424" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="425" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="256" priority="425" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="426" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="255" priority="426" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1222">
-    <cfRule type="containsText" dxfId="257" priority="418" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="254" priority="418" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="419" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="253" priority="419" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="420" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="252" priority="420" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1222)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1280">
-    <cfRule type="containsText" dxfId="254" priority="406" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="251" priority="406" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="407" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="250" priority="407" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="408" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="249" priority="408" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1282">
-    <cfRule type="containsText" dxfId="251" priority="394" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="248" priority="394" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="395" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="247" priority="395" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="396" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="246" priority="396" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1284">
-    <cfRule type="containsText" dxfId="248" priority="382" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="245" priority="382" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1284)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="383" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="244" priority="383" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1284)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="384" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="243" priority="384" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1284)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1285">
-    <cfRule type="containsText" dxfId="245" priority="376" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="242" priority="376" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="377" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="241" priority="377" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="378" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="240" priority="378" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1286">
-    <cfRule type="containsText" dxfId="242" priority="370" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="239" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="371" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="238" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="372" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="237" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1287:D1304">
-    <cfRule type="containsText" dxfId="239" priority="364" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="236" priority="364" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1287)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="365" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="235" priority="365" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1287)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="366" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="234" priority="366" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1287)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="236" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="233" priority="349" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="232" priority="350" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="231" priority="351" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="233" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="230" priority="346" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="229" priority="347" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="228" priority="348" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="230" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="325" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="326" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="327" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="227" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="328" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="329" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="330" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1311">
-    <cfRule type="containsText" dxfId="224" priority="310" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="221" priority="310" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1311)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="311" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="220" priority="311" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1311)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="312" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="219" priority="312" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1311)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1312">
-    <cfRule type="containsText" dxfId="221" priority="304" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="218" priority="304" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="305" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="217" priority="305" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="306" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="216" priority="306" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1260:D1261">
-    <cfRule type="containsText" dxfId="218" priority="274" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="215" priority="274" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="275" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="214" priority="275" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="276" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="213" priority="276" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1262:D1263">
-    <cfRule type="containsText" dxfId="215" priority="268" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="212" priority="268" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="269" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="211" priority="269" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1262)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="270" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="210" priority="270" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1349:E1353">
-    <cfRule type="cellIs" dxfId="212" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="253" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="255" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1349">
-    <cfRule type="containsText" dxfId="209" priority="250" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="206" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="251" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="205" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="252" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="204" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1349)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1350">
-    <cfRule type="containsText" dxfId="206" priority="244" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="203" priority="244" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="245" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="202" priority="245" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="246" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="201" priority="246" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1351">
-    <cfRule type="containsText" dxfId="203" priority="238" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="200" priority="238" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="239" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="199" priority="239" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="240" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="198" priority="240" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1351)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1352:D1358">
-    <cfRule type="containsText" dxfId="200" priority="232" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="197" priority="232" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="233" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="196" priority="233" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="234" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="195" priority="234" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1354">
-    <cfRule type="cellIs" dxfId="197" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="229" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="230" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="231" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1355:E1357">
-    <cfRule type="cellIs" dxfId="194" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1358">
-    <cfRule type="cellIs" dxfId="191" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="217" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="218" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="219" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1330:D1337">
-    <cfRule type="containsText" dxfId="188" priority="211" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="185" priority="211" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1330)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="212" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="184" priority="212" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1330)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="213" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="183" priority="213" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1330)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1359:D1360">
-    <cfRule type="containsText" dxfId="185" priority="205" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="182" priority="205" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="206" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="181" priority="206" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="207" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="180" priority="207" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1359)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1359:E1360">
-    <cfRule type="cellIs" dxfId="182" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="202" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="203" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="204" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1361">
-    <cfRule type="containsText" dxfId="179" priority="199" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="176" priority="199" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1361)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="200" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="175" priority="200" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1361)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="201" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="174" priority="201" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1361)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1361">
-    <cfRule type="cellIs" dxfId="176" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1362">
-    <cfRule type="containsText" dxfId="173" priority="193" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="193" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="194" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="195" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="195" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1362">
-    <cfRule type="cellIs" dxfId="170" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="191" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="192" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1363">
-    <cfRule type="containsText" dxfId="167" priority="187" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="164" priority="187" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="188" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="163" priority="188" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="189" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="162" priority="189" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1363">
-    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="184" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="185" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="186" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1364">
-    <cfRule type="containsText" dxfId="161" priority="181" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="181" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="182" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="182" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="183" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="183" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1364)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1364">
-    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="179" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="180" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1365">
-    <cfRule type="containsText" dxfId="155" priority="175" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="152" priority="175" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="177" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="150" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1365">
-    <cfRule type="cellIs" dxfId="152" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="174" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1366">
-    <cfRule type="containsText" dxfId="149" priority="169" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="146" priority="169" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="145" priority="170" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="171" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="144" priority="171" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1366)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1366:E1367">
-    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="166" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="168" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1367">
-    <cfRule type="containsText" dxfId="143" priority="163" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="163" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="164" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1339:D1343">
-    <cfRule type="containsText" dxfId="140" priority="160" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="137" priority="160" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="161" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="162" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1339)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="137" priority="154" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="134" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="155" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="133" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="156" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1368">
-    <cfRule type="cellIs" dxfId="134" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="149" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="150" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1368">
-    <cfRule type="containsText" dxfId="131" priority="145" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1369">
-    <cfRule type="cellIs" dxfId="128" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1369:D1372">
-    <cfRule type="containsText" dxfId="125" priority="139" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="120" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1370">
-    <cfRule type="cellIs" dxfId="122" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="137" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="138" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1371">
-    <cfRule type="cellIs" dxfId="119" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1372">
-    <cfRule type="cellIs" dxfId="116" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="131" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="132" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1373">
-    <cfRule type="containsText" dxfId="113" priority="127" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="128" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="129" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="129" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1373">
-    <cfRule type="cellIs" dxfId="110" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1374">
-    <cfRule type="containsText" dxfId="107" priority="121" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="102" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1374">
-    <cfRule type="cellIs" dxfId="104" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1375">
-    <cfRule type="containsText" dxfId="101" priority="115" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="116" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="96" priority="117" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1375">
-    <cfRule type="cellIs" dxfId="98" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="113" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="114" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1376">
-    <cfRule type="containsText" dxfId="95" priority="109" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="110" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="91" priority="110" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="111" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="90" priority="111" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1376">
-    <cfRule type="cellIs" dxfId="92" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1377:D1378">
-    <cfRule type="containsText" dxfId="89" priority="103" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="84" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1377)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1377:E1378">
-    <cfRule type="cellIs" dxfId="86" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1379">
-    <cfRule type="containsText" dxfId="83" priority="97" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1379)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="98" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="98" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1379)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="99" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="99" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1379">
-    <cfRule type="cellIs" dxfId="80" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="95" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1380">
-    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="74" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="73" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="72" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1380">
-    <cfRule type="cellIs" dxfId="74" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1381">
-    <cfRule type="containsText" dxfId="71" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1381)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1381)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="66" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1381">
-    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1382">
-    <cfRule type="containsText" dxfId="65" priority="79" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="81" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1382">
-    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="77" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D52">
-    <cfRule type="containsText" dxfId="59" priority="73" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="74" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1383:D1385">
-    <cfRule type="containsText" dxfId="56" priority="70" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="71" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="72" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="72" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1383:E1385">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="68" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1264:D1270 D1272:D1273">
-    <cfRule type="containsText" dxfId="50" priority="64" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="65" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="66" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1274:D1279">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1274)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1274)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1344">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1271">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1271">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1271)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1271)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1338">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1338">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E337">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9191" uniqueCount="2422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10572" uniqueCount="2423">
   <si>
     <t>Scenarios</t>
   </si>
@@ -7301,12 +7301,44 @@
   </si>
   <si>
     <t>M4tc018_3_VerifyPendingDisclaimerPopAtBulkDownloadCheckImpactCRMSide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip: session not created: This version of ChromeDriver only supports Chrome version 85
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'DESK0051', ip: '192.168.1.161', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_141'
+Driver info: driver.version: ChromeDriver
+remote stacktrace: Backtrace:
+	Ordinal0 [0x0147D383+3134339]
+	Ordinal0 [0x0136A171+2007409]
+	Ordinal0 [0x0120AEE8+569064]
+	Ordinal0 [0x0119139F+70559]
+	Ordinal0 [0x0118CC63+52323]
+	Ordinal0 [0x011B0DFC+200188]
+	Ordinal0 [0x011B0C1D+199709]
+	Ordinal0 [0x011AEB0B+191243]
+	Ordinal0 [0x01192E77+77431]
+	Ordinal0 [0x01193E3E+81470]
+	Ordinal0 [0x01193DC9+81353]
+	Ordinal0 [0x01380CD9+2100441]
+	GetHandleVerifier [0x015EB75A+1396954]
+	GetHandleVerifier [0x015EB3D9+1396057]
+	GetHandleVerifier [0x015F7126+1444518]
+	GetHandleVerifier [0x015EBCE8+1398376]
+	Ordinal0 [0x01377F51+2064209]
+	Ordinal0 [0x013822EB+2106091]
+	Ordinal0 [0x01382411+2106385]
+	Ordinal0 [0x013949C4+2181572]
+	BaseThreadInitThunk [0x75CC33CA+18]
+	RtlInitializeExceptionChain [0x77A29ED2+99]
+	RtlInitializeExceptionChain [0x77A29EA5+54]
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7829,7 +7861,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="365">
+  <dxfs count="367">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12061,17 +12107,17 @@
   <dimension ref="H1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="2" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:9" s="69" customFormat="1" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.3">
@@ -12087,7 +12133,7 @@
         <v>2135</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>85</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
@@ -12119,7 +12165,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2408</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
@@ -12236,12 +12282,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="364" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="363" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12265,10 +12311,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9" style="24" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="24" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="24" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="24" width="21.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="24" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12320,34 +12366,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="24" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="19.140625" style="58" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="13.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="58" collapsed="1"/>
-    <col min="27" max="27" width="19.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="27.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="16384" width="9.140625" style="58" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="58" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="58" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="58" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="58" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="44.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="58" width="18.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="58" width="18.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="58" width="14.0" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" style="58" width="24.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="58" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="58" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="58" width="18.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="58" width="15.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="58" width="12.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="58" width="19.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="58" width="18.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="58" width="24.42578125" collapsed="true"/>
+    <col min="20" max="21" bestFit="true" customWidth="true" style="58" width="13.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="58" width="11.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="58" width="15.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="58" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="58" width="18.0" collapsed="true"/>
+    <col min="26" max="26" style="58" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="58" width="19.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="58" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="58" width="19.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="58" width="27.5703125" collapsed="true"/>
+    <col min="31" max="16384" style="58" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13001,38 +13047,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.42578125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" style="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="139.5703125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="67.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.85546875" style="31" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" style="31" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31" style="31" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="128" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="70.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.140625" style="31" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="46.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="33.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="35.140625" style="31" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.5703125" style="31" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="26.42578125" style="31" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" style="31" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="19.140625" style="31" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="255.5703125" style="31" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="134.85546875" style="31" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="81.5703125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.42578125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.85546875" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.42578125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.140625" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.5703125" style="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="9.140625" style="31" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="42" width="109.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="31" width="43.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="31" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="31" width="139.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="31" width="44.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="31" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="31" width="28.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="31" width="67.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="31" width="22.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="31" width="19.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="31" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="31" width="31.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="31" width="128.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="31" width="70.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="31" width="27.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="31" width="46.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="31" width="33.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="31" width="35.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="31" width="35.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="31" width="10.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="31" width="26.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="31" width="11.5703125" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" style="31" width="19.140625" collapsed="true"/>
+    <col min="26" max="29" customWidth="true" style="31" width="255.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="31" width="134.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="31" width="81.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="31" width="20.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="31" width="20.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="31" width="22.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="31" width="13.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="31" width="10.5703125" collapsed="true"/>
+    <col min="37" max="16384" style="31" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -21212,14 +21258,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="77.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="9.140625" style="24" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="255.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="24" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="24" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="24" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="24" width="77.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="24" width="6.85546875" collapsed="true"/>
+    <col min="5" max="10" style="24" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="24" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="24" width="255.5703125" collapsed="true"/>
+    <col min="13" max="16384" style="24" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -21339,17 +21385,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="255.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="24" width="255.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -21544,14 +21590,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="77.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="57.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="11" width="9.140625" style="24" collapsed="1"/>
-    <col min="12" max="12" width="55.5703125" style="24" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="255.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="24" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="24" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="24" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="24" width="77.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="24" width="57.5703125" collapsed="true"/>
+    <col min="5" max="11" style="24" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="24" width="55.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="24" width="255.5703125" collapsed="true"/>
+    <col min="14" max="16384" style="24" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -21642,12 +21688,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" style="72" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="58" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="58" width="48.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="72" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="58" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="20.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="58" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -21748,18 +21794,18 @@
   <dimension ref="A1:AD1382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" style="93" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="94.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="93" width="13.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="77" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21787,10 +21833,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>2408</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>2422</v>
       </c>
       <c r="E2" s="92" t="s">
         <v>2028</v>
@@ -21804,10 +21850,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>2408</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>2422</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>2028</v>
@@ -26688,7 +26734,7 @@
         <v>85</v>
       </c>
       <c r="D289" t="s">
-        <v>2409</v>
+        <v>378</v>
       </c>
       <c r="E289" s="92" t="s">
         <v>2029</v>
@@ -39812,7 +39858,7 @@
         <v>4</v>
       </c>
       <c r="C1062" s="4" t="s">
-        <v>2408</v>
+        <v>85</v>
       </c>
       <c r="D1062" t="s">
         <v>378</v>
@@ -45020,1333 +45066,1333 @@
   </sheetData>
   <autoFilter ref="A1:E1382"/>
   <conditionalFormatting sqref="D383:D740 D1173:D1212 D742:D1043 D1214 D1302:D1307 D1220:D1256 D1310:D1326 D6:D39 D1066:D1167 D53:D381">
-    <cfRule type="containsText" dxfId="362" priority="598" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="364" priority="598" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="599" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="363" priority="599" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="600" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="362" priority="600" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383:D740 D6:D21 D53:D269 D271:D381">
-    <cfRule type="containsText" dxfId="359" priority="595" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="361" priority="595" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="596" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="360" priority="596" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="597" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="359" priority="597" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1044:D1058">
-    <cfRule type="containsText" dxfId="356" priority="592" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="358" priority="592" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="593" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="357" priority="593" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="594" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="356" priority="594" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1044)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1044:D1058">
-    <cfRule type="containsText" dxfId="353" priority="589" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="355" priority="589" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="590" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="354" priority="590" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="591" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="353" priority="591" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1044)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1044:D1058">
-    <cfRule type="containsText" dxfId="350" priority="586" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="352" priority="586" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="587" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="351" priority="587" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1044)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="588" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="350" priority="588" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1044)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D382">
-    <cfRule type="containsText" dxfId="347" priority="583" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="349" priority="583" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="584" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="348" priority="584" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="585" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="347" priority="585" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D382">
-    <cfRule type="containsText" dxfId="344" priority="580" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="346" priority="580" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="581" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="345" priority="581" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="582" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="344" priority="582" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D741">
-    <cfRule type="containsText" dxfId="341" priority="577" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="343" priority="577" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D741)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="578" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="342" priority="578" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D741)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="579" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="341" priority="579" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D741)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D741">
-    <cfRule type="containsText" dxfId="338" priority="574" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="340" priority="574" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D741)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="575" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="339" priority="575" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D741)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="576" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="338" priority="576" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D741)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1059:D1065">
-    <cfRule type="containsText" dxfId="335" priority="571" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="337" priority="571" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="572" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="336" priority="572" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="573" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="335" priority="573" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1059)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1059:D1065">
-    <cfRule type="containsText" dxfId="332" priority="568" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="334" priority="568" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="569" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="333" priority="569" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="570" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="332" priority="570" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1059)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1059:D1065">
-    <cfRule type="containsText" dxfId="329" priority="565" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="331" priority="565" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="566" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="330" priority="566" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1059)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="567" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="329" priority="567" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1059)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1168:D1172">
-    <cfRule type="containsText" dxfId="326" priority="559" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="328" priority="559" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="560" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="327" priority="560" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="561" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="326" priority="561" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E634:E671 E770:E800 E6:E77 E973:E1172 E270:E382">
-    <cfRule type="cellIs" dxfId="323" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="556" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="557" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="558" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E522:E633">
-    <cfRule type="cellIs" dxfId="320" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="553" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="554" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="555" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E893:E972">
-    <cfRule type="cellIs" dxfId="317" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="550" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="551" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="552" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E383:E417">
-    <cfRule type="cellIs" dxfId="314" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="544" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="545" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="546" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742:E769">
-    <cfRule type="cellIs" dxfId="311" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="541" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="542" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="543" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E801:E892">
-    <cfRule type="cellIs" dxfId="308" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="538" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="539" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="540" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E418:E521">
-    <cfRule type="cellIs" dxfId="305" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="535" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="536" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="537" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E107">
-    <cfRule type="cellIs" dxfId="302" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="532" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="533" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="534" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E672:E741">
-    <cfRule type="cellIs" dxfId="299" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="529" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="530" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="531" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1173:E1267 E1336:E1341 E1269:E1334">
-    <cfRule type="cellIs" dxfId="296" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="526" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="527" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="528" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E269">
-    <cfRule type="cellIs" dxfId="293" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="523" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="524" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="525" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1278">
-    <cfRule type="containsText" dxfId="290" priority="520" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="292" priority="520" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="521" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="291" priority="521" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="522" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="290" priority="522" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1280">
-    <cfRule type="containsText" dxfId="287" priority="514" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="289" priority="514" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="515" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="288" priority="515" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="516" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="287" priority="516" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1215">
-    <cfRule type="containsText" dxfId="284" priority="472" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="286" priority="472" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="473" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="285" priority="473" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="474" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="284" priority="474" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1342">
-    <cfRule type="containsText" dxfId="281" priority="466" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="283" priority="466" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1342)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="467" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="282" priority="467" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1342)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="468" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="281" priority="468" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1342">
-    <cfRule type="cellIs" dxfId="278" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="463" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="464" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="465" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1213">
-    <cfRule type="containsText" dxfId="275" priority="478" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="277" priority="478" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="479" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="276" priority="479" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="480" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="275" priority="480" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1343">
-    <cfRule type="cellIs" dxfId="272" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="460" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="461" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="462" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1343">
-    <cfRule type="containsText" dxfId="269" priority="457" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="271" priority="457" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="458" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="270" priority="458" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="459" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="269" priority="459" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1344">
-    <cfRule type="cellIs" dxfId="266" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="454" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="455" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="456" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1344">
-    <cfRule type="containsText" dxfId="263" priority="451" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="265" priority="451" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="452" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="264" priority="452" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="453" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="263" priority="453" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1345">
-    <cfRule type="cellIs" dxfId="260" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="448" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="449" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="450" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1345">
-    <cfRule type="containsText" dxfId="257" priority="445" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="259" priority="445" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="446" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="258" priority="446" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="447" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="257" priority="447" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1216">
-    <cfRule type="containsText" dxfId="254" priority="427" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="256" priority="427" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="428" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="255" priority="428" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="429" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="254" priority="429" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1217">
-    <cfRule type="containsText" dxfId="251" priority="421" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="253" priority="421" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="422" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="252" priority="422" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="423" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="251" priority="423" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1218">
-    <cfRule type="containsText" dxfId="248" priority="415" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="250" priority="415" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="416" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="249" priority="416" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="417" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="248" priority="417" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1219">
-    <cfRule type="containsText" dxfId="245" priority="409" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="247" priority="409" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="410" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="246" priority="410" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="411" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="245" priority="411" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1277">
-    <cfRule type="containsText" dxfId="242" priority="397" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="244" priority="397" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1277)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="398" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="243" priority="398" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1277)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="399" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="242" priority="399" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1279">
-    <cfRule type="containsText" dxfId="239" priority="385" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="241" priority="385" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1279)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="386" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="240" priority="386" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1279)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="387" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="239" priority="387" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1281">
-    <cfRule type="containsText" dxfId="236" priority="373" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="238" priority="373" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="374" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="237" priority="374" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="375" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="236" priority="375" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1282">
-    <cfRule type="containsText" dxfId="233" priority="367" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="235" priority="367" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="368" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="234" priority="368" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="369" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="233" priority="369" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1283">
-    <cfRule type="containsText" dxfId="230" priority="361" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="232" priority="361" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="362" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="231" priority="362" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="363" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="230" priority="363" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1284:D1301">
-    <cfRule type="containsText" dxfId="227" priority="355" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="229" priority="355" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1284)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="356" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="228" priority="356" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1284)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="357" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="227" priority="357" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1284)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="224" priority="340" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="226" priority="340" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="341" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="225" priority="341" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="342" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="224" priority="342" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="221" priority="337" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="223" priority="337" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="338" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="222" priority="338" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="339" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="221" priority="339" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="218" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="316" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="317" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="318" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="215" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="319" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="320" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="321" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1308">
-    <cfRule type="containsText" dxfId="212" priority="301" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="214" priority="301" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="302" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="213" priority="302" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1308)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="303" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="212" priority="303" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1308)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1309">
-    <cfRule type="containsText" dxfId="209" priority="295" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="211" priority="295" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="296" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="210" priority="296" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1309)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="209" priority="297" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1309)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1257:D1258">
-    <cfRule type="containsText" dxfId="206" priority="265" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="208" priority="265" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="266" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="207" priority="266" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="267" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="206" priority="267" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1259:D1260">
-    <cfRule type="containsText" dxfId="203" priority="259" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="205" priority="259" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="260" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="204" priority="260" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="261" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="203" priority="261" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1346:E1350">
-    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="244" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="245" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="246" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1346">
-    <cfRule type="containsText" dxfId="197" priority="241" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="199" priority="241" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1346)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="242" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="198" priority="242" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1346)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="243" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="197" priority="243" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1346)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1347">
-    <cfRule type="containsText" dxfId="194" priority="235" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="196" priority="235" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="236" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="195" priority="236" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="237" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="194" priority="237" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1348">
-    <cfRule type="containsText" dxfId="191" priority="229" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="193" priority="229" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="230" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="192" priority="230" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="231" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="191" priority="231" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1349:D1355">
-    <cfRule type="containsText" dxfId="188" priority="223" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="190" priority="223" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="224" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="189" priority="224" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="225" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="188" priority="225" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1349)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1351">
-    <cfRule type="cellIs" dxfId="185" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="220" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="221" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="222" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1352:E1354">
-    <cfRule type="cellIs" dxfId="182" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1355">
-    <cfRule type="cellIs" dxfId="179" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="208" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="209" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="210" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1327:D1334">
-    <cfRule type="containsText" dxfId="176" priority="202" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="178" priority="202" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="203" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="177" priority="203" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="204" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="176" priority="204" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1356:D1357">
-    <cfRule type="containsText" dxfId="173" priority="196" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="175" priority="196" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="197" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="174" priority="197" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="198" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="173" priority="198" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1356)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1356:E1357">
-    <cfRule type="cellIs" dxfId="170" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="194" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1358">
-    <cfRule type="containsText" dxfId="167" priority="190" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="169" priority="190" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1358)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="191" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="168" priority="191" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1358)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="192" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="167" priority="192" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1358)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1358">
-    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1359">
-    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="163" priority="184" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="162" priority="185" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="186" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="161" priority="186" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1359)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1359">
-    <cfRule type="cellIs" dxfId="158" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="181" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="182" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="183" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1360">
-    <cfRule type="containsText" dxfId="155" priority="178" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="157" priority="178" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1360)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="179" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="156" priority="179" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1360)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="180" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="155" priority="180" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1360)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1360">
-    <cfRule type="cellIs" dxfId="152" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="175" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="176" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="177" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1361">
-    <cfRule type="containsText" dxfId="149" priority="172" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="151" priority="172" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1361)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="173" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="150" priority="173" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1361)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="174" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="149" priority="174" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1361)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1361">
-    <cfRule type="cellIs" dxfId="146" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="170" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="171" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1362">
-    <cfRule type="containsText" dxfId="143" priority="166" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="145" priority="166" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="167" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="168" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="143" priority="168" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1362">
-    <cfRule type="cellIs" dxfId="140" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="163" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="164" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="165" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1363">
-    <cfRule type="containsText" dxfId="137" priority="160" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="139" priority="160" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="161" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="138" priority="161" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="162" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="137" priority="162" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1363:E1364">
-    <cfRule type="cellIs" dxfId="134" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="157" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="158" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="159" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1364">
-    <cfRule type="containsText" dxfId="131" priority="154" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="133" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="155" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="132" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="156" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="131" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1364)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1336:D1340">
-    <cfRule type="containsText" dxfId="128" priority="151" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="130" priority="151" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1336)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="152" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="129" priority="152" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1336)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="153" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="128" priority="153" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="125" priority="145" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="127" priority="145" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="126" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="147" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="125" priority="147" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1365">
-    <cfRule type="cellIs" dxfId="122" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="139" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="140" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="141" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1365">
-    <cfRule type="containsText" dxfId="119" priority="136" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="121" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="138" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="119" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1366">
-    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1366:D1369">
-    <cfRule type="containsText" dxfId="113" priority="130" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="115" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="131" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="114" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="132" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="113" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1366)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1367">
-    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="127" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="128" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="129" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1368">
-    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1369">
-    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="121" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="122" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="123" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1370">
-    <cfRule type="containsText" dxfId="101" priority="118" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="103" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1370)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="119" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="102" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1370)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="120" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="101" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1370">
-    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1371">
-    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="97" priority="112" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1371)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="113" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1371)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="114" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="95" priority="114" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1371">
-    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1372">
-    <cfRule type="containsText" dxfId="89" priority="106" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="91" priority="106" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1372)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="107" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="90" priority="107" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1372)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="108" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1372">
-    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="103" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="104" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="105" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1373">
-    <cfRule type="containsText" dxfId="83" priority="100" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="85" priority="100" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="102" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="83" priority="102" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1373">
-    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1374:D1375">
-    <cfRule type="containsText" dxfId="77" priority="94" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="79" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="95" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="96" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1374:E1375">
-    <cfRule type="cellIs" dxfId="74" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="92" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="93" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1376">
-    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="73" priority="88" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="89" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="90" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="71" priority="90" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1376">
-    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="85" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="87" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1377">
-    <cfRule type="containsText" dxfId="65" priority="82" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="67" priority="82" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="66" priority="83" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="65" priority="84" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1377)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1377">
-    <cfRule type="cellIs" dxfId="62" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1378">
-    <cfRule type="containsText" dxfId="59" priority="76" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="61" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1378)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="77" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="60" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1378)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="59" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1378)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1378">
-    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1379">
-    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="55" priority="70" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1379)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="54" priority="71" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1379)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="72" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="53" priority="72" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1379)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1379">
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D52">
-    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="49" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1380:D1382">
-    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="62" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="45" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="44" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1380:E1382">
-    <cfRule type="cellIs" dxfId="41" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="59" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1261:D1267 D1269:D1270">
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="39" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="38" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1271:D1276">
-    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1271)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1271)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1341">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1268">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1268">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1268)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1268)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1335">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1335">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1335)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1335)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1335)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46375,10 +46421,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.140625" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="58" width="43.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="58" width="43.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -47079,10 +47125,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="58" width="40.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -47704,45 +47750,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="19.5703125" style="24" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="24" collapsed="1"/>
-    <col min="28" max="28" width="26.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15" style="72" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="30.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="22.5703125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="98.7109375" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="47" width="19.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="24" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="24" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="24" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="24" width="14.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="24" width="27.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="24" width="22.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="24" width="26.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="24" width="27.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="24" width="21.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="24" width="13.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="24" width="23.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="24" width="28.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="24" width="29.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="24" width="27.42578125" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="24" width="19.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="24" width="15.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="24" width="16.140625" collapsed="true"/>
+    <col min="27" max="27" style="24" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="24" width="26.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="58" width="21.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="58" width="15.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="72" width="15.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="58" width="30.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="58" width="22.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="58" width="98.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="58" width="17.85546875" collapsed="true"/>
+    <col min="42" max="47" bestFit="true" customWidth="true" style="58" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -49501,17 +49547,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.85546875" style="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36" style="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.42578125" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="24" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="24" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="24" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="24" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="58" width="36.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="58" width="37.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -50841,10 +50887,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -51623,9 +51669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -52085,10 +52131,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FilePath!$A$1:$AE$458</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$1:$E$1385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$1:$E$1386</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Modules!$A$1:$R$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9203" uniqueCount="2423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9207" uniqueCount="2424">
   <si>
     <t>Scenarios</t>
   </si>
@@ -7304,6 +7304,9 @@
   </si>
   <si>
     <t>M6tc023_3_DataImportFundsFundRaisingsPartnershipAndCreateCommitments</t>
+  </si>
+  <si>
+    <t>M16tc027_ChangeFileSplitterOptionsAndVerifyInvestors_Impact</t>
   </si>
 </sst>
 </file>
@@ -7832,7 +7835,70 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="374">
+  <dxfs count="380">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12338,12 +12404,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="373" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="cellIs" dxfId="372" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21847,11 +21913,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1385"/>
+  <dimension ref="A1:AD1386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -42496,28 +42562,28 @@
       </c>
     </row>
     <row r="1215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1215" s="51" t="s">
+      <c r="A1215" s="50" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1215" s="19">
+        <v>27</v>
+      </c>
+      <c r="C1215" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1215" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1215" s="92" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1216" s="51" t="s">
         <v>2068</v>
       </c>
-      <c r="B1215" s="19">
+      <c r="B1216" s="19">
         <v>1</v>
-      </c>
-      <c r="C1215" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1215" s="92" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1216" s="50" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B1216" s="19">
-        <v>2</v>
       </c>
       <c r="C1216" s="4" t="s">
         <v>85</v>
@@ -42531,10 +42597,10 @@
     </row>
     <row r="1217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="50" t="s">
-        <v>2116</v>
+        <v>2071</v>
       </c>
       <c r="B1217" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1217" s="4" t="s">
         <v>85</v>
@@ -42548,10 +42614,10 @@
     </row>
     <row r="1218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="50" t="s">
-        <v>2072</v>
+        <v>2116</v>
       </c>
       <c r="B1218" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1218" s="4" t="s">
         <v>85</v>
@@ -42565,10 +42631,10 @@
     </row>
     <row r="1219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="50" t="s">
-        <v>2106</v>
+        <v>2072</v>
       </c>
       <c r="B1219" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1219" s="4" t="s">
         <v>85</v>
@@ -42582,10 +42648,10 @@
     </row>
     <row r="1220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="50" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1220" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1220" s="4" t="s">
         <v>85</v>
@@ -42599,10 +42665,10 @@
     </row>
     <row r="1221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="50" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1221" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1221" s="4" t="s">
         <v>85</v>
@@ -42616,10 +42682,10 @@
     </row>
     <row r="1222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1222" s="50" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1222" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1222" s="4" t="s">
         <v>85</v>
@@ -42633,7 +42699,7 @@
     </row>
     <row r="1223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1223" s="50" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1223" s="19">
         <v>8</v>
@@ -42650,10 +42716,10 @@
     </row>
     <row r="1224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1224" s="50" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="B1224" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1224" s="4" t="s">
         <v>85</v>
@@ -42667,7 +42733,7 @@
     </row>
     <row r="1225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="50" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1225" s="19">
         <v>9</v>
@@ -42684,7 +42750,7 @@
     </row>
     <row r="1226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="50" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1226" s="19">
         <v>9</v>
@@ -42701,7 +42767,7 @@
     </row>
     <row r="1227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="50" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1227" s="19">
         <v>9</v>
@@ -42718,9 +42784,11 @@
     </row>
     <row r="1228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1228" s="50" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B1228" s="19"/>
+        <v>2120</v>
+      </c>
+      <c r="B1228" s="19">
+        <v>9</v>
+      </c>
       <c r="C1228" s="4" t="s">
         <v>85</v>
       </c>
@@ -42733,7 +42801,7 @@
     </row>
     <row r="1229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1229" s="50" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1229" s="19"/>
       <c r="C1229" s="4" t="s">
@@ -42748,7 +42816,7 @@
     </row>
     <row r="1230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1230" s="50" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B1230" s="19"/>
       <c r="C1230" s="4" t="s">
@@ -42763,7 +42831,7 @@
     </row>
     <row r="1231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1231" s="50" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1231" s="19"/>
       <c r="C1231" s="4" t="s">
@@ -42778,7 +42846,7 @@
     </row>
     <row r="1232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="50" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="B1232" s="19"/>
       <c r="C1232" s="4" t="s">
@@ -42793,7 +42861,7 @@
     </row>
     <row r="1233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1233" s="50" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B1233" s="19"/>
       <c r="C1233" s="4" t="s">
@@ -42808,7 +42876,7 @@
     </row>
     <row r="1234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1234" s="50" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1234" s="19"/>
       <c r="C1234" s="4" t="s">
@@ -42823,7 +42891,7 @@
     </row>
     <row r="1235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1235" s="50" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1235" s="19"/>
       <c r="C1235" s="4" t="s">
@@ -42838,7 +42906,7 @@
     </row>
     <row r="1236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1236" s="50" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="B1236" s="19"/>
       <c r="C1236" s="4" t="s">
@@ -42853,7 +42921,7 @@
     </row>
     <row r="1237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1237" s="50" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="B1237" s="19"/>
       <c r="C1237" s="4" t="s">
@@ -42868,7 +42936,7 @@
     </row>
     <row r="1238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1238" s="50" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1238" s="19"/>
       <c r="C1238" s="4" t="s">
@@ -42883,7 +42951,7 @@
     </row>
     <row r="1239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1239" s="50" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B1239" s="19"/>
       <c r="C1239" s="4" t="s">
@@ -42898,7 +42966,7 @@
     </row>
     <row r="1240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1240" s="50" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1240" s="19"/>
       <c r="C1240" s="4" t="s">
@@ -42913,7 +42981,7 @@
     </row>
     <row r="1241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1241" s="50" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1241" s="19"/>
       <c r="C1241" s="4" t="s">
@@ -42928,7 +42996,7 @@
     </row>
     <row r="1242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1242" s="50" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1242" s="19"/>
       <c r="C1242" s="4" t="s">
@@ -42943,7 +43011,7 @@
     </row>
     <row r="1243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1243" s="50" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="B1243" s="19"/>
       <c r="C1243" s="4" t="s">
@@ -42958,7 +43026,7 @@
     </row>
     <row r="1244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1244" s="50" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B1244" s="19"/>
       <c r="C1244" s="4" t="s">
@@ -42973,7 +43041,7 @@
     </row>
     <row r="1245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1245" s="50" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1245" s="19"/>
       <c r="C1245" s="4" t="s">
@@ -42988,7 +43056,7 @@
     </row>
     <row r="1246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1246" s="50" t="s">
-        <v>2179</v>
+        <v>2164</v>
       </c>
       <c r="B1246" s="19"/>
       <c r="C1246" s="4" t="s">
@@ -43003,7 +43071,7 @@
     </row>
     <row r="1247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1247" s="50" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1247" s="19"/>
       <c r="C1247" s="4" t="s">
@@ -43018,7 +43086,7 @@
     </row>
     <row r="1248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1248" s="50" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1248" s="19"/>
       <c r="C1248" s="4" t="s">
@@ -43033,7 +43101,7 @@
     </row>
     <row r="1249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1249" s="50" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="B1249" s="19"/>
       <c r="C1249" s="4" t="s">
@@ -43048,7 +43116,7 @@
     </row>
     <row r="1250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1250" s="50" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1250" s="19"/>
       <c r="C1250" s="4" t="s">
@@ -43063,7 +43131,7 @@
     </row>
     <row r="1251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1251" s="50" t="s">
-        <v>2197</v>
+        <v>2186</v>
       </c>
       <c r="B1251" s="19"/>
       <c r="C1251" s="4" t="s">
@@ -43078,7 +43146,7 @@
     </row>
     <row r="1252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1252" s="50" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B1252" s="19"/>
       <c r="C1252" s="4" t="s">
@@ -43093,7 +43161,7 @@
     </row>
     <row r="1253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1253" s="50" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B1253" s="19"/>
       <c r="C1253" s="4" t="s">
@@ -43108,7 +43176,7 @@
     </row>
     <row r="1254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1254" s="50" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="B1254" s="19"/>
       <c r="C1254" s="4" t="s">
@@ -43123,7 +43191,7 @@
     </row>
     <row r="1255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1255" s="50" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1255" s="19"/>
       <c r="C1255" s="4" t="s">
@@ -43138,7 +43206,7 @@
     </row>
     <row r="1256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1256" s="50" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1256" s="19"/>
       <c r="C1256" s="4" t="s">
@@ -43153,7 +43221,7 @@
     </row>
     <row r="1257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1257" s="50" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1257" s="19"/>
       <c r="C1257" s="4" t="s">
@@ -43168,7 +43236,7 @@
     </row>
     <row r="1258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1258" s="50" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1258" s="19"/>
       <c r="C1258" s="4" t="s">
@@ -43183,7 +43251,7 @@
     </row>
     <row r="1259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1259" s="50" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="B1259" s="19"/>
       <c r="C1259" s="4" t="s">
@@ -43198,7 +43266,7 @@
     </row>
     <row r="1260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1260" s="50" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="B1260" s="19"/>
       <c r="C1260" s="4" t="s">
@@ -43213,7 +43281,7 @@
     </row>
     <row r="1261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1261" s="50" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1261" s="19"/>
       <c r="C1261" s="4" t="s">
@@ -43228,7 +43296,7 @@
     </row>
     <row r="1262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1262" s="50" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="B1262" s="19"/>
       <c r="C1262" s="4" t="s">
@@ -43243,7 +43311,7 @@
     </row>
     <row r="1263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1263" s="50" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B1263" s="19"/>
       <c r="C1263" s="4" t="s">
@@ -43256,9 +43324,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="1264" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1264" s="50" t="s">
-        <v>2323</v>
+        <v>2227</v>
       </c>
       <c r="B1264" s="19"/>
       <c r="C1264" s="4" t="s">
@@ -43273,7 +43341,7 @@
     </row>
     <row r="1265" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1265" s="50" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B1265" s="19"/>
       <c r="C1265" s="4" t="s">
@@ -43288,7 +43356,7 @@
     </row>
     <row r="1266" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1266" s="50" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B1266" s="19"/>
       <c r="C1266" s="4" t="s">
@@ -43303,7 +43371,7 @@
     </row>
     <row r="1267" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1267" s="50" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B1267" s="19"/>
       <c r="C1267" s="4" t="s">
@@ -43318,7 +43386,7 @@
     </row>
     <row r="1268" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1268" s="50" t="s">
-        <v>2362</v>
+        <v>2326</v>
       </c>
       <c r="B1268" s="19"/>
       <c r="C1268" s="4" t="s">
@@ -43333,7 +43401,7 @@
     </row>
     <row r="1269" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1269" s="50" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1269" s="19"/>
       <c r="C1269" s="4" t="s">
@@ -43348,7 +43416,7 @@
     </row>
     <row r="1270" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1270" s="50" t="s">
-        <v>2337</v>
+        <v>2363</v>
       </c>
       <c r="B1270" s="19"/>
       <c r="C1270" s="4" t="s">
@@ -43363,7 +43431,7 @@
     </row>
     <row r="1271" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1271" s="50" t="s">
-        <v>2383</v>
+        <v>2337</v>
       </c>
       <c r="B1271" s="19"/>
       <c r="C1271" s="4" t="s">
@@ -43378,7 +43446,7 @@
     </row>
     <row r="1272" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1272" s="50" t="s">
-        <v>2327</v>
+        <v>2383</v>
       </c>
       <c r="B1272" s="19"/>
       <c r="C1272" s="4" t="s">
@@ -43393,7 +43461,7 @@
     </row>
     <row r="1273" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1273" s="50" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B1273" s="19"/>
       <c r="C1273" s="4" t="s">
@@ -43408,7 +43476,7 @@
     </row>
     <row r="1274" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1274" s="50" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B1274" s="19"/>
       <c r="C1274" s="4" t="s">
@@ -43423,7 +43491,7 @@
     </row>
     <row r="1275" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="50" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B1275" s="19"/>
       <c r="C1275" s="4" t="s">
@@ -43438,7 +43506,7 @@
     </row>
     <row r="1276" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1276" s="50" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1276" s="19"/>
       <c r="C1276" s="4" t="s">
@@ -43453,7 +43521,7 @@
     </row>
     <row r="1277" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1277" s="50" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1277" s="19"/>
       <c r="C1277" s="4" t="s">
@@ -43468,7 +43536,7 @@
     </row>
     <row r="1278" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1278" s="50" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1278" s="19"/>
       <c r="C1278" s="4" t="s">
@@ -43478,12 +43546,12 @@
         <v>378</v>
       </c>
       <c r="E1278" s="92" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1279" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1279" s="50" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1279" s="19"/>
       <c r="C1279" s="4" t="s">
@@ -43496,13 +43564,11 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="1280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1280" s="50" t="s">
-        <v>2338</v>
-      </c>
-      <c r="B1280" s="19">
-        <v>6</v>
-      </c>
+        <v>2334</v>
+      </c>
+      <c r="B1280" s="19"/>
       <c r="C1280" s="4" t="s">
         <v>85</v>
       </c>
@@ -43510,14 +43576,16 @@
         <v>378</v>
       </c>
       <c r="E1280" s="92" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1281" s="50" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B1281" s="19"/>
+        <v>2338</v>
+      </c>
+      <c r="B1281" s="19">
+        <v>6</v>
+      </c>
       <c r="C1281" s="4" t="s">
         <v>85</v>
       </c>
@@ -43530,7 +43598,7 @@
     </row>
     <row r="1282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1282" s="50" t="s">
-        <v>2111</v>
+        <v>2069</v>
       </c>
       <c r="B1282" s="19"/>
       <c r="C1282" s="4" t="s">
@@ -43545,7 +43613,7 @@
     </row>
     <row r="1283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1283" s="50" t="s">
-        <v>2070</v>
+        <v>2111</v>
       </c>
       <c r="B1283" s="19"/>
       <c r="C1283" s="4" t="s">
@@ -43560,7 +43628,7 @@
     </row>
     <row r="1284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1284" s="50" t="s">
-        <v>2112</v>
+        <v>2070</v>
       </c>
       <c r="B1284" s="19"/>
       <c r="C1284" s="4" t="s">
@@ -43575,7 +43643,7 @@
     </row>
     <row r="1285" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1285" s="50" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1285" s="19"/>
       <c r="C1285" s="4" t="s">
@@ -43590,11 +43658,9 @@
     </row>
     <row r="1286" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1286" s="50" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B1286" s="19">
-        <v>6</v>
-      </c>
+        <v>2113</v>
+      </c>
+      <c r="B1286" s="19"/>
       <c r="C1286" s="4" t="s">
         <v>85</v>
       </c>
@@ -43607,10 +43673,10 @@
     </row>
     <row r="1287" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1287" s="50" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1287" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1287" s="4" t="s">
         <v>85</v>
@@ -43624,9 +43690,11 @@
     </row>
     <row r="1288" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1288" s="50" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B1288" s="19"/>
+        <v>2115</v>
+      </c>
+      <c r="B1288" s="19">
+        <v>7</v>
+      </c>
       <c r="C1288" s="4" t="s">
         <v>85</v>
       </c>
@@ -43639,7 +43707,7 @@
     </row>
     <row r="1289" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1289" s="50" t="s">
-        <v>2377</v>
+        <v>2125</v>
       </c>
       <c r="B1289" s="19"/>
       <c r="C1289" s="4" t="s">
@@ -43654,7 +43722,7 @@
     </row>
     <row r="1290" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1290" s="50" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1290" s="19"/>
       <c r="C1290" s="4" t="s">
@@ -43669,7 +43737,7 @@
     </row>
     <row r="1291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1291" s="50" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="B1291" s="19"/>
       <c r="C1291" s="4" t="s">
@@ -43684,7 +43752,7 @@
     </row>
     <row r="1292" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1292" s="50" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1292" s="19"/>
       <c r="C1292" s="4" t="s">
@@ -43699,7 +43767,7 @@
     </row>
     <row r="1293" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1293" s="50" t="s">
-        <v>2126</v>
+        <v>2375</v>
       </c>
       <c r="B1293" s="19"/>
       <c r="C1293" s="4" t="s">
@@ -43714,7 +43782,7 @@
     </row>
     <row r="1294" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1294" s="50" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B1294" s="19"/>
       <c r="C1294" s="4" t="s">
@@ -43729,7 +43797,7 @@
     </row>
     <row r="1295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1295" s="50" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1295" s="19"/>
       <c r="C1295" s="4" t="s">
@@ -43744,7 +43812,7 @@
     </row>
     <row r="1296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1296" s="50" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="B1296" s="19"/>
       <c r="C1296" s="4" t="s">
@@ -43759,7 +43827,7 @@
     </row>
     <row r="1297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1297" s="50" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="B1297" s="19"/>
       <c r="C1297" s="4" t="s">
@@ -43774,7 +43842,7 @@
     </row>
     <row r="1298" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1298" s="50" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="B1298" s="19"/>
       <c r="C1298" s="4" t="s">
@@ -43789,7 +43857,7 @@
     </row>
     <row r="1299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1299" s="50" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1299" s="19"/>
       <c r="C1299" s="4" t="s">
@@ -43804,7 +43872,7 @@
     </row>
     <row r="1300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1300" s="50" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1300" s="19"/>
       <c r="C1300" s="4" t="s">
@@ -43819,7 +43887,7 @@
     </row>
     <row r="1301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1301" s="50" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1301" s="19"/>
       <c r="C1301" s="4" t="s">
@@ -43834,7 +43902,7 @@
     </row>
     <row r="1302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1302" s="50" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="B1302" s="19"/>
       <c r="C1302" s="4" t="s">
@@ -43849,7 +43917,7 @@
     </row>
     <row r="1303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1303" s="50" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1303" s="19"/>
       <c r="C1303" s="4" t="s">
@@ -43864,7 +43932,7 @@
     </row>
     <row r="1304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1304" s="50" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1304" s="19"/>
       <c r="C1304" s="4" t="s">
@@ -43879,7 +43947,7 @@
     </row>
     <row r="1305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1305" s="50" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="B1305" s="19"/>
       <c r="C1305" s="4" t="s">
@@ -43894,7 +43962,7 @@
     </row>
     <row r="1306" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1306" s="50" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1306" s="19"/>
       <c r="C1306" s="4" t="s">
@@ -43909,7 +43977,7 @@
     </row>
     <row r="1307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1307" s="50" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="B1307" s="19"/>
       <c r="C1307" s="4" t="s">
@@ -43924,7 +43992,7 @@
     </row>
     <row r="1308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1308" s="50" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1308" s="19"/>
       <c r="C1308" s="4" t="s">
@@ -43939,7 +44007,7 @@
     </row>
     <row r="1309" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1309" s="50" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B1309" s="19"/>
       <c r="C1309" s="4" t="s">
@@ -43954,7 +44022,7 @@
     </row>
     <row r="1310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1310" s="50" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B1310" s="19"/>
       <c r="C1310" s="4" t="s">
@@ -43969,7 +44037,7 @@
     </row>
     <row r="1311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1311" s="50" t="s">
-        <v>2177</v>
+        <v>2159</v>
       </c>
       <c r="B1311" s="19"/>
       <c r="C1311" s="4" t="s">
@@ -43984,7 +44052,7 @@
     </row>
     <row r="1312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1312" s="50" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1312" s="19"/>
       <c r="C1312" s="4" t="s">
@@ -43999,7 +44067,7 @@
     </row>
     <row r="1313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1313" s="50" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B1313" s="19"/>
       <c r="C1313" s="4" t="s">
@@ -44014,7 +44082,7 @@
     </row>
     <row r="1314" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1314" s="50" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1314" s="19"/>
       <c r="C1314" s="4" t="s">
@@ -44029,7 +44097,7 @@
     </row>
     <row r="1315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1315" s="50" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B1315" s="19"/>
       <c r="C1315" s="4" t="s">
@@ -44044,7 +44112,7 @@
     </row>
     <row r="1316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1316" s="50" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1316" s="19"/>
       <c r="C1316" s="4" t="s">
@@ -44059,7 +44127,7 @@
     </row>
     <row r="1317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1317" s="50" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="B1317" s="19"/>
       <c r="C1317" s="4" t="s">
@@ -44074,7 +44142,7 @@
     </row>
     <row r="1318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1318" s="50" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="B1318" s="19"/>
       <c r="C1318" s="4" t="s">
@@ -44089,7 +44157,7 @@
     </row>
     <row r="1319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1319" s="50" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="B1319" s="19"/>
       <c r="C1319" s="4" t="s">
@@ -44104,7 +44172,7 @@
     </row>
     <row r="1320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1320" s="50" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="B1320" s="19"/>
       <c r="C1320" s="4" t="s">
@@ -44119,7 +44187,7 @@
     </row>
     <row r="1321" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1321" s="50" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="B1321" s="19"/>
       <c r="C1321" s="4" t="s">
@@ -44134,7 +44202,7 @@
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1322" s="50" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B1322" s="19"/>
       <c r="C1322" s="4" t="s">
@@ -44149,7 +44217,7 @@
     </row>
     <row r="1323" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1323" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1323" s="19"/>
       <c r="C1323" s="4" t="s">
@@ -44164,7 +44232,7 @@
     </row>
     <row r="1324" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1324" s="50" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1324" s="19"/>
       <c r="C1324" s="4" t="s">
@@ -44179,7 +44247,7 @@
     </row>
     <row r="1325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1325" s="50" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="B1325" s="19"/>
       <c r="C1325" s="4" t="s">
@@ -44194,7 +44262,7 @@
     </row>
     <row r="1326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1326" s="50" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="B1326" s="19"/>
       <c r="C1326" s="4" t="s">
@@ -44209,7 +44277,7 @@
     </row>
     <row r="1327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1327" s="50" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B1327" s="19"/>
       <c r="C1327" s="4" t="s">
@@ -44224,7 +44292,7 @@
     </row>
     <row r="1328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1328" s="50" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B1328" s="19"/>
       <c r="C1328" s="4" t="s">
@@ -44239,7 +44307,7 @@
     </row>
     <row r="1329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1329" s="50" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1329" s="19"/>
       <c r="C1329" s="4" t="s">
@@ -44254,7 +44322,7 @@
     </row>
     <row r="1330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1330" s="50" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B1330" s="19"/>
       <c r="C1330" s="4" t="s">
@@ -44269,7 +44337,7 @@
     </row>
     <row r="1331" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1331" s="50" t="s">
-        <v>2250</v>
+        <v>2228</v>
       </c>
       <c r="B1331" s="19"/>
       <c r="C1331" s="4" t="s">
@@ -44284,7 +44352,7 @@
     </row>
     <row r="1332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1332" s="50" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1332" s="19"/>
       <c r="C1332" s="4" t="s">
@@ -44299,7 +44367,7 @@
     </row>
     <row r="1333" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1333" s="50" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1333" s="19"/>
       <c r="C1333" s="4" t="s">
@@ -44314,7 +44382,7 @@
     </row>
     <row r="1334" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1334" s="50" t="s">
-        <v>2360</v>
+        <v>2252</v>
       </c>
       <c r="B1334" s="19"/>
       <c r="C1334" s="4" t="s">
@@ -44329,7 +44397,7 @@
     </row>
     <row r="1335" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1335" s="50" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1335" s="19"/>
       <c r="C1335" s="4" t="s">
@@ -44344,7 +44412,7 @@
     </row>
     <row r="1336" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1336" s="50" t="s">
-        <v>2336</v>
+        <v>2361</v>
       </c>
       <c r="B1336" s="19"/>
       <c r="C1336" s="4" t="s">
@@ -44359,7 +44427,7 @@
     </row>
     <row r="1337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1337" s="50" t="s">
-        <v>2253</v>
+        <v>2336</v>
       </c>
       <c r="B1337" s="19"/>
       <c r="C1337" s="4" t="s">
@@ -44374,7 +44442,7 @@
     </row>
     <row r="1338" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1338" s="50" t="s">
-        <v>2384</v>
+        <v>2253</v>
       </c>
       <c r="B1338" s="19"/>
       <c r="C1338" s="4" t="s">
@@ -44389,7 +44457,7 @@
     </row>
     <row r="1339" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1339" s="50" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="B1339" s="19"/>
       <c r="C1339" s="4" t="s">
@@ -44404,7 +44472,7 @@
     </row>
     <row r="1340" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1340" s="50" t="s">
-        <v>2278</v>
+        <v>2380</v>
       </c>
       <c r="B1340" s="19"/>
       <c r="C1340" s="4" t="s">
@@ -44419,7 +44487,7 @@
     </row>
     <row r="1341" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1341" s="50" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1341" s="19"/>
       <c r="C1341" s="4" t="s">
@@ -44434,7 +44502,7 @@
     </row>
     <row r="1342" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1342" s="50" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1342" s="19"/>
       <c r="C1342" s="4" t="s">
@@ -44449,7 +44517,7 @@
     </row>
     <row r="1343" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1343" s="50" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B1343" s="19"/>
       <c r="C1343" s="4" t="s">
@@ -44462,9 +44530,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="1344" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1344" s="50" t="s">
-        <v>2335</v>
+        <v>2281</v>
       </c>
       <c r="B1344" s="19"/>
       <c r="C1344" s="4" t="s">
@@ -44477,29 +44545,27 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="1345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1345" s="51" t="s">
+    <row r="1345" spans="1:5" s="58" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="50" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1345" s="19"/>
+      <c r="C1345" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1345" s="92" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="51" t="s">
         <v>2074</v>
       </c>
-      <c r="B1345" s="19">
+      <c r="B1346" s="19">
         <v>1</v>
-      </c>
-      <c r="C1345" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1345" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1345" s="92" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1346" s="50" t="s">
-        <v>2075</v>
-      </c>
-      <c r="B1346" s="19">
-        <v>2</v>
       </c>
       <c r="C1346" s="4" t="s">
         <v>85</v>
@@ -44513,10 +44579,10 @@
     </row>
     <row r="1347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1347" s="50" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1347" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1347" s="4" t="s">
         <v>85</v>
@@ -44530,10 +44596,10 @@
     </row>
     <row r="1348" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1348" s="50" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1348" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1348" s="4" t="s">
         <v>85</v>
@@ -44547,10 +44613,10 @@
     </row>
     <row r="1349" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1349" s="50" t="s">
-        <v>2234</v>
+        <v>2077</v>
       </c>
       <c r="B1349" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1349" s="4" t="s">
         <v>85</v>
@@ -44564,10 +44630,10 @@
     </row>
     <row r="1350" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1350" s="50" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1350" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1350" s="4" t="s">
         <v>85</v>
@@ -44581,10 +44647,10 @@
     </row>
     <row r="1351" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1351" s="50" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1351" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1351" s="4" t="s">
         <v>85</v>
@@ -44598,10 +44664,10 @@
     </row>
     <row r="1352" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1352" s="50" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1352" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1352" s="4" t="s">
         <v>85</v>
@@ -44615,7 +44681,7 @@
     </row>
     <row r="1353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1353" s="50" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1353" s="19">
         <v>8</v>
@@ -44632,10 +44698,10 @@
     </row>
     <row r="1354" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1354" s="50" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1354" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1354" s="4" t="s">
         <v>85</v>
@@ -44649,10 +44715,10 @@
     </row>
     <row r="1355" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1355" s="50" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1355" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1355" s="4" t="s">
         <v>85</v>
@@ -44666,7 +44732,7 @@
     </row>
     <row r="1356" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1356" s="50" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1356" s="19">
         <v>10</v>
@@ -44683,7 +44749,7 @@
     </row>
     <row r="1357" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1357" s="50" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1357" s="19">
         <v>10</v>
@@ -44700,10 +44766,10 @@
     </row>
     <row r="1358" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1358" s="50" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1358" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1358" s="4" t="s">
         <v>85</v>
@@ -44717,7 +44783,7 @@
     </row>
     <row r="1359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1359" s="50" t="s">
-        <v>2266</v>
+        <v>2243</v>
       </c>
       <c r="B1359" s="19">
         <v>11</v>
@@ -44734,7 +44800,7 @@
     </row>
     <row r="1360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1360" s="50" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1360" s="19">
         <v>11</v>
@@ -44751,10 +44817,10 @@
     </row>
     <row r="1361" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1361" s="50" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B1361" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1361" s="4" t="s">
         <v>85</v>
@@ -44768,7 +44834,7 @@
     </row>
     <row r="1362" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1362" s="50" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1362" s="19">
         <v>12</v>
@@ -44785,10 +44851,10 @@
     </row>
     <row r="1363" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1363" s="50" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B1363" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1363" s="4" t="s">
         <v>85</v>
@@ -44819,10 +44885,10 @@
     </row>
     <row r="1365" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1365" s="50" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B1365" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1365" s="4" t="s">
         <v>85</v>
@@ -44836,7 +44902,7 @@
     </row>
     <row r="1366" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1366" s="50" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B1366" s="19">
         <v>14</v>
@@ -44853,10 +44919,10 @@
     </row>
     <row r="1367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1367" s="50" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B1367" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1367" s="4" t="s">
         <v>85</v>
@@ -44870,10 +44936,10 @@
     </row>
     <row r="1368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1368" s="50" t="s">
-        <v>2302</v>
+        <v>2273</v>
       </c>
       <c r="B1368" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1368" s="4" t="s">
         <v>85</v>
@@ -44887,7 +44953,7 @@
     </row>
     <row r="1369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1369" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1369" s="19">
         <v>16</v>
@@ -44904,10 +44970,10 @@
     </row>
     <row r="1370" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1370" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1370" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1370" s="4" t="s">
         <v>85</v>
@@ -44921,7 +44987,7 @@
     </row>
     <row r="1371" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1371" s="50" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1371" s="19">
         <v>17</v>
@@ -44938,10 +45004,10 @@
     </row>
     <row r="1372" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1372" s="50" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1372" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1372" s="4" t="s">
         <v>85</v>
@@ -44955,10 +45021,10 @@
     </row>
     <row r="1373" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1373" s="50" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1373" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1373" s="4" t="s">
         <v>85</v>
@@ -44972,7 +45038,7 @@
     </row>
     <row r="1374" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1374" s="50" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1374" s="19">
         <v>19</v>
@@ -44989,10 +45055,10 @@
     </row>
     <row r="1375" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1375" s="50" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1375" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1375" s="4" t="s">
         <v>85</v>
@@ -45006,10 +45072,10 @@
     </row>
     <row r="1376" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1376" s="50" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1376" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1376" s="4" t="s">
         <v>85</v>
@@ -45023,10 +45089,10 @@
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1377" s="50" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1377" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1377" s="4" t="s">
         <v>85</v>
@@ -45040,7 +45106,7 @@
     </row>
     <row r="1378" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1378" s="50" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1378" s="19">
         <v>22</v>
@@ -45057,10 +45123,10 @@
     </row>
     <row r="1379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1379" s="50" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1379" s="19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1379" s="4" t="s">
         <v>85</v>
@@ -45074,10 +45140,10 @@
     </row>
     <row r="1380" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1380" s="50" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1380" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1380" s="4" t="s">
         <v>85</v>
@@ -45091,10 +45157,10 @@
     </row>
     <row r="1381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1381" s="50" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1381" s="19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1381" s="4" t="s">
         <v>85</v>
@@ -45108,10 +45174,10 @@
     </row>
     <row r="1382" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1382" s="50" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1382" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1382" s="4" t="s">
         <v>85</v>
@@ -45125,10 +45191,10 @@
     </row>
     <row r="1383" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1383" s="50" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B1383" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1383" s="4" t="s">
         <v>85</v>
@@ -45142,7 +45208,7 @@
     </row>
     <row r="1384" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1384" s="50" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B1384" s="19">
         <v>27</v>
@@ -45159,1391 +45225,1408 @@
     </row>
     <row r="1385" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1385" s="50" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1385" s="19">
+        <v>27</v>
+      </c>
+      <c r="C1385" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1385" s="92" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="50" t="s">
         <v>2322</v>
       </c>
-      <c r="B1385" s="50"/>
-      <c r="C1385" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1385" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1385" s="92" t="s">
+      <c r="B1386" s="50"/>
+      <c r="C1386" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1386" s="92" t="s">
         <v>2026</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1385"/>
-  <conditionalFormatting sqref="D1176:D1215 D745:D1046 D1217 D1305:D1310 D1223:D1259 D1313:D1329 D6:D39 D53:D336 D1069:D1170 D338:D382 D384:D743">
-    <cfRule type="containsText" dxfId="371" priority="607" operator="containsText" text="Skip:">
+  <autoFilter ref="A1:E1386"/>
+  <conditionalFormatting sqref="D745:D1046 D1218 D1306:D1311 D1224:D1260 D1314:D1330 D6:D39 D53:D336 D1069:D1170 D338:D382 D384:D743 D1176:D1216">
+    <cfRule type="containsText" dxfId="377" priority="607" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="608" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="376" priority="608" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="609" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="375" priority="609" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271:D336 D6:D21 D53:D269 D338:D382 D384:D743">
-    <cfRule type="containsText" dxfId="368" priority="604" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="374" priority="604" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="605" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="373" priority="605" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="606" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="372" priority="606" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="365" priority="601" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="371" priority="601" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="602" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="370" priority="602" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="603" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="369" priority="603" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="362" priority="598" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="368" priority="598" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="599" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="367" priority="599" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="600" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="366" priority="600" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1047:D1061">
-    <cfRule type="containsText" dxfId="359" priority="595" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="365" priority="595" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="596" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="364" priority="596" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1047)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="597" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="363" priority="597" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1047)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="356" priority="592" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="362" priority="592" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="593" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="361" priority="593" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="594" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="360" priority="594" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D383">
-    <cfRule type="containsText" dxfId="353" priority="589" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="359" priority="589" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="590" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="358" priority="590" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="591" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="357" priority="591" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D744">
-    <cfRule type="containsText" dxfId="350" priority="586" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="356" priority="586" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="587" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="355" priority="587" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="588" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="354" priority="588" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D744)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D744">
-    <cfRule type="containsText" dxfId="347" priority="583" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="353" priority="583" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="584" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="352" priority="584" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D744)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="585" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="351" priority="585" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D744)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="344" priority="580" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="350" priority="580" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="581" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="349" priority="581" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="582" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="348" priority="582" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="341" priority="577" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="347" priority="577" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="578" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="346" priority="578" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="579" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="345" priority="579" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1062:D1068">
-    <cfRule type="containsText" dxfId="338" priority="574" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="344" priority="574" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="575" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="343" priority="575" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1062)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="576" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="342" priority="576" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1062)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1171:D1175">
-    <cfRule type="containsText" dxfId="335" priority="568" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="341" priority="568" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="569" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="340" priority="569" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1171)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="570" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="339" priority="570" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E637:E674 E773:E803 E6:E77 E976:E1175 E338:E383 E270:E336">
-    <cfRule type="cellIs" dxfId="332" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="565" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="566" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="567" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E525:E636">
-    <cfRule type="cellIs" dxfId="329" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="562" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="563" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="564" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E896:E975">
-    <cfRule type="cellIs" dxfId="326" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="559" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="560" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="561" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E384:E420">
-    <cfRule type="cellIs" dxfId="323" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="553" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="554" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="555" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E745:E772">
-    <cfRule type="cellIs" dxfId="320" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="550" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="551" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="552" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E804:E895">
-    <cfRule type="cellIs" dxfId="317" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="547" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="548" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="549" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E421:E524">
-    <cfRule type="cellIs" dxfId="314" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="544" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="545" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="546" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E107">
-    <cfRule type="cellIs" dxfId="311" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="541" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="542" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="543" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E675:E744">
-    <cfRule type="cellIs" dxfId="308" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="538" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="539" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="540" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1176:E1270 E1339:E1344 E1272:E1337">
-    <cfRule type="cellIs" dxfId="305" priority="535" operator="equal">
+  <conditionalFormatting sqref="E1340:E1345 E1273:E1338 E1176:E1271">
+    <cfRule type="cellIs" dxfId="311" priority="535" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="536" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="537" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108:E269">
-    <cfRule type="cellIs" dxfId="302" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="532" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="533" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="534" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1282">
+    <cfRule type="containsText" dxfId="305" priority="529" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1282)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="530" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1282)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="531" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1282)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1284">
+    <cfRule type="containsText" dxfId="302" priority="523" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1284)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="524" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1284)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="525" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1284)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1219">
+    <cfRule type="containsText" dxfId="299" priority="481" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="482" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="483" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1346">
+    <cfRule type="containsText" dxfId="296" priority="475" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1346)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="476" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1346)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="477" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1346)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1346">
+    <cfRule type="cellIs" dxfId="293" priority="472" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="473" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="474" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1217">
+    <cfRule type="containsText" dxfId="290" priority="487" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="488" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="489" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1217)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1347">
+    <cfRule type="cellIs" dxfId="287" priority="469" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="470" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="471" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1347">
+    <cfRule type="containsText" dxfId="284" priority="466" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1347)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="467" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1347)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="468" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1347)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1348">
+    <cfRule type="cellIs" dxfId="281" priority="463" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="464" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="465" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1348">
+    <cfRule type="containsText" dxfId="278" priority="460" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1348)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="461" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1348)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="462" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1348)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1349">
+    <cfRule type="cellIs" dxfId="275" priority="457" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="458" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="459" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1349">
+    <cfRule type="containsText" dxfId="272" priority="454" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1349)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="455" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1349)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="456" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1349)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1220">
+    <cfRule type="containsText" dxfId="269" priority="436" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="437" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="438" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1221">
+    <cfRule type="containsText" dxfId="266" priority="430" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="431" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="432" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1221)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1222">
+    <cfRule type="containsText" dxfId="263" priority="424" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="425" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="426" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1222)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1223">
+    <cfRule type="containsText" dxfId="260" priority="418" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="259" priority="419" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="258" priority="420" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1281">
-    <cfRule type="containsText" dxfId="299" priority="529" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="257" priority="406" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="530" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="256" priority="407" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="531" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="255" priority="408" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1283">
-    <cfRule type="containsText" dxfId="296" priority="523" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="254" priority="394" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="524" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="253" priority="395" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1283)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="525" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="252" priority="396" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1283)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1218">
-    <cfRule type="containsText" dxfId="293" priority="481" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1218)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="482" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1218)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="483" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1218)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1345">
-    <cfRule type="containsText" dxfId="290" priority="475" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1345)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="476" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1345)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="477" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1345)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1345">
-    <cfRule type="cellIs" dxfId="287" priority="472" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="473" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="474" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1216">
-    <cfRule type="containsText" dxfId="284" priority="487" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1216)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="488" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1216)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="489" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1216)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1346">
-    <cfRule type="cellIs" dxfId="281" priority="469" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="470" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="471" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1346">
-    <cfRule type="containsText" dxfId="278" priority="466" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1346)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="467" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1346)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="468" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1346)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1347">
-    <cfRule type="cellIs" dxfId="275" priority="463" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="464" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="465" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1347">
-    <cfRule type="containsText" dxfId="272" priority="460" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1347)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="461" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1347)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="462" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1347)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1348">
-    <cfRule type="cellIs" dxfId="269" priority="457" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="458" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="459" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1348">
-    <cfRule type="containsText" dxfId="266" priority="454" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1348)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="455" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1348)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="456" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1348)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1219">
-    <cfRule type="containsText" dxfId="263" priority="436" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="437" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="438" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1220">
-    <cfRule type="containsText" dxfId="260" priority="430" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="431" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="432" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1220)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1221">
-    <cfRule type="containsText" dxfId="257" priority="424" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="425" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="426" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1221)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1222">
-    <cfRule type="containsText" dxfId="254" priority="418" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1222)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="419" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1222)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="420" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1222)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1280">
-    <cfRule type="containsText" dxfId="251" priority="406" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1280)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="407" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1280)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="408" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1280)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1282">
-    <cfRule type="containsText" dxfId="248" priority="394" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1282)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="395" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1282)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="396" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1282)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1284">
-    <cfRule type="containsText" dxfId="245" priority="382" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1284)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="383" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1284)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="384" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1284)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1285">
-    <cfRule type="containsText" dxfId="242" priority="376" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="251" priority="382" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="377" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="250" priority="383" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="378" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="249" priority="384" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1286">
-    <cfRule type="containsText" dxfId="239" priority="370" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="248" priority="376" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="371" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="247" priority="377" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="372" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="246" priority="378" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1286)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1287:D1304">
-    <cfRule type="containsText" dxfId="236" priority="364" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D1287">
+    <cfRule type="containsText" dxfId="245" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1287)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="365" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="244" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1287)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="366" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="243" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1287)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1288:D1305">
+    <cfRule type="containsText" dxfId="242" priority="364" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1288)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="365" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1288)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="366" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1288)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="233" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="239" priority="349" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="238" priority="350" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="237" priority="351" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="230" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="236" priority="346" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="235" priority="347" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="234" priority="348" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="227" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="325" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="326" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="327" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="224" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="328" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="329" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="330" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1311">
-    <cfRule type="containsText" dxfId="221" priority="310" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1311)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="311" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1311)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="312" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1311)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1312">
-    <cfRule type="containsText" dxfId="218" priority="304" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="227" priority="310" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="305" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="226" priority="311" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="306" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="225" priority="312" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1312)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1260:D1261">
-    <cfRule type="containsText" dxfId="215" priority="274" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1260)))</formula>
+  <conditionalFormatting sqref="D1313">
+    <cfRule type="containsText" dxfId="224" priority="304" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1313)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="275" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1260)))</formula>
+    <cfRule type="containsText" dxfId="223" priority="305" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1313)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="276" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1260)))</formula>
+    <cfRule type="containsText" dxfId="222" priority="306" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1313)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1262:D1263">
-    <cfRule type="containsText" dxfId="212" priority="268" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1262)))</formula>
+  <conditionalFormatting sqref="D1261:D1262">
+    <cfRule type="containsText" dxfId="221" priority="274" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="269" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1262)))</formula>
+    <cfRule type="containsText" dxfId="220" priority="275" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="270" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1262)))</formula>
+    <cfRule type="containsText" dxfId="219" priority="276" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1261)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1349:E1353">
-    <cfRule type="cellIs" dxfId="209" priority="253" operator="equal">
+  <conditionalFormatting sqref="D1263:D1264">
+    <cfRule type="containsText" dxfId="218" priority="268" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1263)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="269" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1263)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="270" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1263)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1350:E1354">
+    <cfRule type="cellIs" dxfId="215" priority="253" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="254" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="255" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1349">
-    <cfRule type="containsText" dxfId="206" priority="250" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1349)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="251" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1349)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="252" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1349)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1350">
-    <cfRule type="containsText" dxfId="203" priority="244" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="212" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="245" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="211" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="246" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="210" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1351">
-    <cfRule type="containsText" dxfId="200" priority="238" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="209" priority="244" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="239" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="208" priority="245" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="240" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="207" priority="246" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1351)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1352:D1358">
-    <cfRule type="containsText" dxfId="197" priority="232" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D1352">
+    <cfRule type="containsText" dxfId="206" priority="238" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="233" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="205" priority="239" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="234" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="204" priority="240" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1352)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1354">
-    <cfRule type="cellIs" dxfId="194" priority="229" operator="equal">
+  <conditionalFormatting sqref="D1353:D1359">
+    <cfRule type="containsText" dxfId="203" priority="232" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="233" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="234" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1353)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1355">
+    <cfRule type="cellIs" dxfId="200" priority="229" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="230" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="231" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1355:E1357">
-    <cfRule type="cellIs" dxfId="191" priority="223" operator="equal">
+  <conditionalFormatting sqref="E1356:E1358">
+    <cfRule type="cellIs" dxfId="197" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1358">
-    <cfRule type="cellIs" dxfId="188" priority="217" operator="equal">
+  <conditionalFormatting sqref="E1359">
+    <cfRule type="cellIs" dxfId="194" priority="217" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="218" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="219" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1330:D1337">
-    <cfRule type="containsText" dxfId="185" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1330)))</formula>
+  <conditionalFormatting sqref="D1331:D1338">
+    <cfRule type="containsText" dxfId="191" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1331)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1330)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1331)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1330)))</formula>
+    <cfRule type="containsText" dxfId="189" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1331)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1359:D1360">
-    <cfRule type="containsText" dxfId="182" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1359)))</formula>
+  <conditionalFormatting sqref="D1360:D1361">
+    <cfRule type="containsText" dxfId="188" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1360)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1359)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1360)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1359)))</formula>
+    <cfRule type="containsText" dxfId="186" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1360)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1359:E1360">
-    <cfRule type="cellIs" dxfId="179" priority="202" operator="equal">
+  <conditionalFormatting sqref="E1360:E1361">
+    <cfRule type="cellIs" dxfId="185" priority="202" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="203" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="204" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1361">
-    <cfRule type="containsText" dxfId="176" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1361)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1361)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1361)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1361">
-    <cfRule type="cellIs" dxfId="173" priority="196" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="197" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="204" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1362">
-    <cfRule type="containsText" dxfId="170" priority="193" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="182" priority="199" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="194" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="181" priority="200" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1362)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="195" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="180" priority="201" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1362)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1362">
-    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1363">
-    <cfRule type="containsText" dxfId="164" priority="187" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="176" priority="193" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="188" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="175" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="189" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="174" priority="195" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1363">
-    <cfRule type="cellIs" dxfId="161" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="190" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="191" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="192" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1364">
-    <cfRule type="containsText" dxfId="158" priority="181" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="187" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="182" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="188" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1364)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="183" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="189" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1364)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1364">
-    <cfRule type="cellIs" dxfId="155" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="184" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="185" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="186" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1365">
-    <cfRule type="containsText" dxfId="152" priority="175" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="163" priority="182" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="177" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1365">
-    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="179" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="180" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1366">
-    <cfRule type="containsText" dxfId="146" priority="169" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="175" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="170" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="171" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1366)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1366:E1367">
-    <cfRule type="cellIs" dxfId="143" priority="166" operator="equal">
+  <conditionalFormatting sqref="E1366">
+    <cfRule type="cellIs" dxfId="155" priority="172" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="173" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="174" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1367">
-    <cfRule type="containsText" dxfId="140" priority="163" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="152" priority="169" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="164" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="151" priority="170" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="165" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1367)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1339:D1343">
-    <cfRule type="containsText" dxfId="137" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1339)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1339)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1339)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="134" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1368">
-    <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
+  <conditionalFormatting sqref="E1367:E1368">
+    <cfRule type="cellIs" dxfId="149" priority="166" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="167" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="168" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1368">
-    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="146" priority="163" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="145" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="144" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1368)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1340:D1344">
+    <cfRule type="containsText" dxfId="143" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1340)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1340)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1340)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D45">
+    <cfRule type="containsText" dxfId="140" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1369">
-    <cfRule type="cellIs" dxfId="125" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="149" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="150" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1369:D1372">
-    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D1369">
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1370">
-    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1370:D1373">
+    <cfRule type="containsText" dxfId="128" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1370)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1370)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1370)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1371">
-    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="137" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="138" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1372">
-    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1373">
-    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1373)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1373)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1373)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1373">
-    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="130" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="131" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="132" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1374">
-    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="116" priority="127" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="114" priority="129" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1374">
-    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1375">
-    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="117" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1375">
-    <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1376">
-    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="104" priority="115" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="110" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="103" priority="116" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="111" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="102" priority="117" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1376">
-    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="112" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="113" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="114" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1377:D1378">
-    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D1377">
+    <cfRule type="containsText" dxfId="98" priority="109" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="97" priority="110" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1377)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="96" priority="111" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1377)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1377:E1378">
-    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
+  <conditionalFormatting sqref="E1377">
+    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1379">
-    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1379)))</formula>
+  <conditionalFormatting sqref="D1378:D1379">
+    <cfRule type="containsText" dxfId="92" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1378)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1379)))</formula>
+    <cfRule type="containsText" dxfId="91" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1378)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1379)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1378)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1379">
-    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
+  <conditionalFormatting sqref="E1378:E1379">
+    <cfRule type="cellIs" dxfId="89" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1380">
-    <cfRule type="containsText" dxfId="74" priority="91" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="86" priority="97" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="92" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="85" priority="98" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="93" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1380">
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="94" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="95" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="96" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1381">
-    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1381)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1381)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1381">
-    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1382">
-    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D1382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="73" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D1382)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="72" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D1382)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1382">
-    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="84" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1383">
+    <cfRule type="containsText" dxfId="68" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1383)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1383">
+    <cfRule type="cellIs" dxfId="65" priority="76" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="77" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D52">
-    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="62" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1383:D1385">
-    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1383)))</formula>
+  <conditionalFormatting sqref="D1384:D1386">
+    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1384)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1383)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1384)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1383)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1384)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1383:E1385">
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+  <conditionalFormatting sqref="E1384:E1386">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1264:D1270 D1272:D1273">
-    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1264)))</formula>
+  <conditionalFormatting sqref="D1265:D1271 D1273:D1274">
+    <cfRule type="containsText" dxfId="53" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1265)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1264)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1265)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1264)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1265)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1274:D1279">
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1274)))</formula>
+  <conditionalFormatting sqref="D1275:D1280">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1275)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1274)))</formula>
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1275)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1274)))</formula>
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1275)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1344">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1344)))</formula>
+  <conditionalFormatting sqref="D1345">
+    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1344)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1344)))</formula>
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1345)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1271">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+  <conditionalFormatting sqref="E1272">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1271">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1271)))</formula>
+  <conditionalFormatting sqref="D1272">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1271)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1271)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1272)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1338">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+  <conditionalFormatting sqref="E1339">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1338">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D1338)))</formula>
+  <conditionalFormatting sqref="D1339">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D1339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D1338)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D1339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D1338)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D1339)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D337">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E337">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1385">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1386">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1385">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1386">
       <formula1>"High,Low"</formula1>
     </dataValidation>
   </dataValidations>
